--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-8835-top-by-races-count.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-8835-top-by-races-count.xlsx
@@ -59,7 +59,7 @@
     <t>fermiparadox</t>
   </si>
   <si>
-    <t>235 ч. 8 мин. 37 сек.</t>
+    <t>235 ч. 08 мин. 37 сек.</t>
   </si>
   <si>
     <t>3</t>
@@ -86,7 +86,7 @@
     <t>NDancer</t>
   </si>
   <si>
-    <t>140 ч. 5 мин. 49 сек.</t>
+    <t>140 ч. 05 мин. 49 сек.</t>
   </si>
   <si>
     <t>6</t>
@@ -122,7 +122,7 @@
     <t>трамвайчик</t>
   </si>
   <si>
-    <t>142 ч. 8 мин. 47 сек.</t>
+    <t>142 ч. 08 мин. 47 сек.</t>
   </si>
   <si>
     <t>10</t>
@@ -131,7 +131,7 @@
     <t>SereDim</t>
   </si>
   <si>
-    <t>153 ч. 9 мин. 22 сек.</t>
+    <t>153 ч. 09 мин. 22 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -149,7 +149,7 @@
     <t>Джиперс_Криперс</t>
   </si>
   <si>
-    <t>115 ч. 41 мин. 0 сек.</t>
+    <t>115 ч. 41 мин. 00 сек.</t>
   </si>
   <si>
     <t>13</t>
@@ -203,7 +203,7 @@
     <t>vault_dweller</t>
   </si>
   <si>
-    <t>43 ч. 6 мин. 13 сек.</t>
+    <t>43 ч. 06 мин. 13 сек.</t>
   </si>
   <si>
     <t>19</t>
@@ -221,7 +221,7 @@
     <t>Corleone99</t>
   </si>
   <si>
-    <t>50 ч. 25 мин. 8 сек.</t>
+    <t>50 ч. 25 мин. 08 сек.</t>
   </si>
   <si>
     <t>21</t>
@@ -230,7 +230,7 @@
     <t>Speedyman</t>
   </si>
   <si>
-    <t>46 ч. 0 мин. 56 сек.</t>
+    <t>46 ч. 00 мин. 56 сек.</t>
   </si>
   <si>
     <t>22</t>
@@ -239,7 +239,7 @@
     <t>pche1</t>
   </si>
   <si>
-    <t>56 ч. 58 мин. 9 сек.</t>
+    <t>56 ч. 58 мин. 09 сек.</t>
   </si>
   <si>
     <t>23</t>
@@ -293,7 +293,7 @@
     <t>antoshagagarin1</t>
   </si>
   <si>
-    <t>66 ч. 16 мин. 4 сек.</t>
+    <t>66 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>29</t>
@@ -320,7 +320,7 @@
     <t>AvtandiLine</t>
   </si>
   <si>
-    <t>35 ч. 5 мин. 34 сек.</t>
+    <t>35 ч. 05 мин. 34 сек.</t>
   </si>
   <si>
     <t>32</t>
@@ -329,7 +329,7 @@
     <t>s0lnyshk0</t>
   </si>
   <si>
-    <t>30 ч. 2 мин. 36 сек.</t>
+    <t>30 ч. 02 мин. 36 сек.</t>
   </si>
   <si>
     <t>33</t>
@@ -374,7 +374,7 @@
     <t>A-Cor</t>
   </si>
   <si>
-    <t>35 ч. 3 мин. 5 сек.</t>
+    <t>35 ч. 03 мин. 05 сек.</t>
   </si>
   <si>
     <t>38</t>
@@ -383,7 +383,7 @@
     <t>vova1290</t>
   </si>
   <si>
-    <t>68 ч. 39 мин. 3 сек.</t>
+    <t>68 ч. 39 мин. 03 сек.</t>
   </si>
   <si>
     <t>39</t>
@@ -428,7 +428,7 @@
     <t>vaihayasa</t>
   </si>
   <si>
-    <t>18 ч. 25 мин. 4 сек.</t>
+    <t>18 ч. 25 мин. 04 сек.</t>
   </si>
   <si>
     <t>44</t>
@@ -488,7 +488,7 @@
     <t>cybranker</t>
   </si>
   <si>
-    <t>33 ч. 56 мин. 0 сек.</t>
+    <t>33 ч. 56 мин. 00 сек.</t>
   </si>
   <si>
     <t>51</t>
@@ -515,7 +515,7 @@
     <t>Vovaldo</t>
   </si>
   <si>
-    <t>37 ч. 7 мин. 41 сек.</t>
+    <t>37 ч. 07 мин. 41 сек.</t>
   </si>
   <si>
     <t>54</t>
@@ -542,7 +542,7 @@
     <t>Aleks85</t>
   </si>
   <si>
-    <t>35 ч. 10 мин. 1 сек.</t>
+    <t>35 ч. 10 мин. 01 сек.</t>
   </si>
   <si>
     <t>57</t>
@@ -560,7 +560,7 @@
     <t>NIN</t>
   </si>
   <si>
-    <t>26 ч. 15 мин. 7 сек.</t>
+    <t>26 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>59</t>
@@ -578,7 +578,7 @@
     <t>Andzenima</t>
   </si>
   <si>
-    <t>45 ч. 10 мин. 7 сек.</t>
+    <t>45 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>61</t>
@@ -605,7 +605,7 @@
     <t>Alukos</t>
   </si>
   <si>
-    <t>43 ч. 21 мин. 8 сек.</t>
+    <t>43 ч. 21 мин. 08 сек.</t>
   </si>
   <si>
     <t>64</t>
@@ -623,7 +623,7 @@
     <t>trackstarrr</t>
   </si>
   <si>
-    <t>47 ч. 3 мин. 15 сек.</t>
+    <t>47 ч. 03 мин. 15 сек.</t>
   </si>
   <si>
     <t>66</t>
@@ -632,7 +632,7 @@
     <t>FarWin</t>
   </si>
   <si>
-    <t>29 ч. 38 мин. 9 сек.</t>
+    <t>29 ч. 38 мин. 09 сек.</t>
   </si>
   <si>
     <t>67</t>
@@ -650,7 +650,7 @@
     <t>valeryani</t>
   </si>
   <si>
-    <t>29 ч. 6 мин. 35 сек.</t>
+    <t>29 ч. 06 мин. 35 сек.</t>
   </si>
   <si>
     <t>69–70</t>
@@ -665,7 +665,7 @@
     <t>haos2100</t>
   </si>
   <si>
-    <t>24 ч. 6 мин. 25 сек.</t>
+    <t>24 ч. 06 мин. 25 сек.</t>
   </si>
   <si>
     <t>71</t>
@@ -716,7 +716,7 @@
     <t>Alanik</t>
   </si>
   <si>
-    <t>23 ч. 9 мин. 20 сек.</t>
+    <t>23 ч. 09 мин. 20 сек.</t>
   </si>
   <si>
     <t>77–78</t>
@@ -758,7 +758,7 @@
     <t>Radheart</t>
   </si>
   <si>
-    <t>31 ч. 59 мин. 9 сек.</t>
+    <t>31 ч. 59 мин. 09 сек.</t>
   </si>
   <si>
     <t>82</t>
@@ -776,7 +776,7 @@
     <t>butcherqq</t>
   </si>
   <si>
-    <t>40 ч. 11 мин. 3 сек.</t>
+    <t>40 ч. 11 мин. 03 сек.</t>
   </si>
   <si>
     <t>84–85</t>
@@ -890,7 +890,7 @@
     <t>dmitry117</t>
   </si>
   <si>
-    <t>41 ч. 3 мин. 50 сек.</t>
+    <t>41 ч. 03 мин. 50 сек.</t>
   </si>
   <si>
     <t>97–100</t>
@@ -899,13 +899,13 @@
     <t>Бейн</t>
   </si>
   <si>
-    <t>46 ч. 43 мин. 7 сек.</t>
+    <t>46 ч. 43 мин. 07 сек.</t>
   </si>
   <si>
     <t>YLLIACTbIu</t>
   </si>
   <si>
-    <t>27 ч. 6 мин. 50 сек.</t>
+    <t>27 ч. 06 мин. 50 сек.</t>
   </si>
   <si>
     <t>marvelage</t>
@@ -935,7 +935,7 @@
     <t>Sady</t>
   </si>
   <si>
-    <t>25 ч. 6 мин. 19 сек.</t>
+    <t>25 ч. 06 мин. 19 сек.</t>
   </si>
   <si>
     <t>103</t>
@@ -944,7 +944,7 @@
     <t>ivixivi</t>
   </si>
   <si>
-    <t>15 ч. 48 мин. 8 сек.</t>
+    <t>15 ч. 48 мин. 08 сек.</t>
   </si>
   <si>
     <t>104</t>
@@ -953,7 +953,7 @@
     <t>Yakadzum</t>
   </si>
   <si>
-    <t>29 ч. 22 мин. 7 сек.</t>
+    <t>29 ч. 22 мин. 07 сек.</t>
   </si>
   <si>
     <t>105</t>
@@ -989,7 +989,7 @@
     <t>ArtHare</t>
   </si>
   <si>
-    <t>35 ч. 4 мин. 3 сек.</t>
+    <t>35 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>109</t>
@@ -1007,7 +1007,7 @@
     <t>M87</t>
   </si>
   <si>
-    <t>14 ч. 42 мин. 2 сек.</t>
+    <t>14 ч. 42 мин. 02 сек.</t>
   </si>
   <si>
     <t>111</t>
@@ -1016,7 +1016,7 @@
     <t>nullfasss22</t>
   </si>
   <si>
-    <t>21 ч. 39 мин. 5 сек.</t>
+    <t>21 ч. 39 мин. 05 сек.</t>
   </si>
   <si>
     <t>112</t>
@@ -1112,7 +1112,7 @@
     <t>maikttt</t>
   </si>
   <si>
-    <t>34 ч. 57 мин. 5 сек.</t>
+    <t>34 ч. 57 мин. 05 сек.</t>
   </si>
   <si>
     <t>123–124</t>
@@ -1160,7 +1160,7 @@
     <t>_Reactive</t>
   </si>
   <si>
-    <t>21 ч. 3 мин. 35 сек.</t>
+    <t>21 ч. 03 мин. 35 сек.</t>
   </si>
   <si>
     <t>129</t>
@@ -1169,7 +1169,7 @@
     <t>Eremite</t>
   </si>
   <si>
-    <t>14 ч. 4 мин. 37 сек.</t>
+    <t>14 ч. 04 мин. 37 сек.</t>
   </si>
   <si>
     <t>130</t>
@@ -1247,7 +1247,7 @@
     <t>grismond</t>
   </si>
   <si>
-    <t>17 ч. 7 мин. 19 сек.</t>
+    <t>17 ч. 07 мин. 19 сек.</t>
   </si>
   <si>
     <t>_Tuki_Tuki_</t>
@@ -1271,7 +1271,7 @@
     <t>Glavredzlovred</t>
   </si>
   <si>
-    <t>15 ч. 4 мин. 54 сек.</t>
+    <t>15 ч. 04 мин. 54 сек.</t>
   </si>
   <si>
     <t>142</t>
@@ -1307,7 +1307,7 @@
     <t>al1as</t>
   </si>
   <si>
-    <t>12 ч. 35 мин. 2 сек.</t>
+    <t>12 ч. 35 мин. 02 сек.</t>
   </si>
   <si>
     <t>146</t>
@@ -1352,7 +1352,7 @@
     <t>razko</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 4 сек.</t>
+    <t>9 ч. 03 мин. 04 сек.</t>
   </si>
   <si>
     <t>151</t>
@@ -1379,7 +1379,7 @@
     <t>Ggegeg</t>
   </si>
   <si>
-    <t>19 ч. 23 мин. 0 сек.</t>
+    <t>19 ч. 23 мин. 00 сек.</t>
   </si>
   <si>
     <t>154</t>
@@ -1406,7 +1406,7 @@
     <t>AvrilLavigne</t>
   </si>
   <si>
-    <t>17 ч. 15 мин. 3 сек.</t>
+    <t>17 ч. 15 мин. 03 сек.</t>
   </si>
   <si>
     <t>157</t>
@@ -1415,7 +1415,7 @@
     <t>Богданов</t>
   </si>
   <si>
-    <t>20 ч. 13 мин. 9 сек.</t>
+    <t>20 ч. 13 мин. 09 сек.</t>
   </si>
   <si>
     <t>158</t>
@@ -1499,7 +1499,7 @@
     <t>epicprime</t>
   </si>
   <si>
-    <t>22 ч. 5 мин. 46 сек.</t>
+    <t>22 ч. 05 мин. 46 сек.</t>
   </si>
   <si>
     <t>168</t>
@@ -1544,7 +1544,7 @@
     <t>HeLLios</t>
   </si>
   <si>
-    <t>13 ч. 6 мин. 16 сек.</t>
+    <t>13 ч. 06 мин. 16 сек.</t>
   </si>
   <si>
     <t>173–174</t>
@@ -1598,7 +1598,7 @@
     <t>JohnStone</t>
   </si>
   <si>
-    <t>16 ч. 50 мин. 1 сек.</t>
+    <t>16 ч. 50 мин. 01 сек.</t>
   </si>
   <si>
     <t>180</t>
@@ -1616,7 +1616,7 @@
     <t>Vadim_K</t>
   </si>
   <si>
-    <t>16 ч. 7 мин. 55 сек.</t>
+    <t>16 ч. 07 мин. 55 сек.</t>
   </si>
   <si>
     <t>182</t>
@@ -1643,7 +1643,7 @@
     <t>Muwka_C_CeBePa</t>
   </si>
   <si>
-    <t>7 ч. 26 мин. 8 сек.</t>
+    <t>7 ч. 26 мин. 08 сек.</t>
   </si>
   <si>
     <t>185</t>
@@ -1652,7 +1652,7 @@
     <t>Fermmer</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 15 сек.</t>
+    <t>12 ч. 04 мин. 15 сек.</t>
   </si>
   <si>
     <t>186</t>
@@ -1670,13 +1670,13 @@
     <t>8788</t>
   </si>
   <si>
-    <t>21 ч. 7 мин. 15 сек.</t>
+    <t>21 ч. 07 мин. 15 сек.</t>
   </si>
   <si>
     <t>Spaider</t>
   </si>
   <si>
-    <t>13 ч. 2 мин. 30 сек.</t>
+    <t>13 ч. 02 мин. 30 сек.</t>
   </si>
   <si>
     <t>189</t>
@@ -1685,7 +1685,7 @@
     <t>Loldet</t>
   </si>
   <si>
-    <t>16 ч. 9 мин. 46 сек.</t>
+    <t>16 ч. 09 мин. 46 сек.</t>
   </si>
   <si>
     <t>190</t>
@@ -1742,7 +1742,7 @@
     <t>tmpd</t>
   </si>
   <si>
-    <t>10 ч. 6 мин. 3 сек.</t>
+    <t>10 ч. 06 мин. 03 сек.</t>
   </si>
   <si>
     <t>197–199</t>
@@ -1763,7 +1763,7 @@
     <t>CyrCyr</t>
   </si>
   <si>
-    <t>15 ч. 7 мин. 9 сек.</t>
+    <t>15 ч. 07 мин. 09 сек.</t>
   </si>
   <si>
     <t>200</t>
@@ -1781,7 +1781,7 @@
     <t>artt</t>
   </si>
   <si>
-    <t>10 ч. 28 мин. 5 сек.</t>
+    <t>10 ч. 28 мин. 05 сек.</t>
   </si>
   <si>
     <t>202</t>
@@ -1805,7 +1805,7 @@
     <t>psixodyb</t>
   </si>
   <si>
-    <t>12 ч. 26 мин. 4 сек.</t>
+    <t>12 ч. 26 мин. 04 сек.</t>
   </si>
   <si>
     <t>205</t>
@@ -1823,13 +1823,13 @@
     <t>Ethicon</t>
   </si>
   <si>
-    <t>14 ч. 16 мин. 0 сек.</t>
+    <t>14 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>ifer</t>
   </si>
   <si>
-    <t>11 ч. 2 мин. 22 сек.</t>
+    <t>11 ч. 02 мин. 22 сек.</t>
   </si>
   <si>
     <t>208–209</t>
@@ -1904,13 +1904,13 @@
     <t>Zzzuzuka</t>
   </si>
   <si>
-    <t>12 ч. 14 мин. 1 сек.</t>
+    <t>12 ч. 14 мин. 01 сек.</t>
   </si>
   <si>
     <t>ВкусВетра</t>
   </si>
   <si>
-    <t>16 ч. 22 мин. 1 сек.</t>
+    <t>16 ч. 22 мин. 01 сек.</t>
   </si>
   <si>
     <t>Kml</t>
@@ -1925,7 +1925,7 @@
     <t>stag_</t>
   </si>
   <si>
-    <t>11 ч. 7 мин. 48 сек.</t>
+    <t>11 ч. 07 мин. 48 сек.</t>
   </si>
   <si>
     <t>Asted</t>
@@ -1940,7 +1940,7 @@
     <t>Кот_Черныш</t>
   </si>
   <si>
-    <t>12 ч. 2 мин. 35 сек.</t>
+    <t>12 ч. 02 мин. 35 сек.</t>
   </si>
   <si>
     <t>222</t>
@@ -1958,7 +1958,7 @@
     <t>maccoll</t>
   </si>
   <si>
-    <t>10 ч. 12 мин. 8 сек.</t>
+    <t>10 ч. 12 мин. 08 сек.</t>
   </si>
   <si>
     <t>Фаст</t>
@@ -1979,7 +1979,7 @@
     <t>Reflex10n</t>
   </si>
   <si>
-    <t>17 ч. 12 мин. 4 сек.</t>
+    <t>17 ч. 12 мин. 04 сек.</t>
   </si>
   <si>
     <t>MrYellow</t>
@@ -2012,7 +2012,7 @@
     <t>Russel_Poltava</t>
   </si>
   <si>
-    <t>11 ч. 0 мин. 15 сек.</t>
+    <t>11 ч. 00 мин. 15 сек.</t>
   </si>
   <si>
     <t>231</t>
@@ -2048,7 +2048,7 @@
     <t>komaz</t>
   </si>
   <si>
-    <t>9 ч. 44 мин. 1 сек.</t>
+    <t>9 ч. 44 мин. 01 сек.</t>
   </si>
   <si>
     <t>235–236</t>
@@ -2072,7 +2072,7 @@
     <t>azatik888</t>
   </si>
   <si>
-    <t>12 ч. 41 мин. 9 сек.</t>
+    <t>12 ч. 41 мин. 09 сек.</t>
   </si>
   <si>
     <t>238–240</t>
@@ -2081,13 +2081,13 @@
     <t>puchkarito</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 16 сек.</t>
+    <t>9 ч. 01 мин. 16 сек.</t>
   </si>
   <si>
     <t>Велимира</t>
   </si>
   <si>
-    <t>9 ч. 6 мин. 1 сек.</t>
+    <t>9 ч. 06 мин. 01 сек.</t>
   </si>
   <si>
     <t>YuriyUs</t>
@@ -2189,7 +2189,7 @@
     <t>daxundaintravel</t>
   </si>
   <si>
-    <t>15 ч. 30 мин. 3 сек.</t>
+    <t>15 ч. 30 мин. 03 сек.</t>
   </si>
   <si>
     <t>xdg-</t>
@@ -2234,7 +2234,7 @@
     <t>Z-i-b-e-r-t</t>
   </si>
   <si>
-    <t>8 ч. 0 мин. 20 сек.</t>
+    <t>8 ч. 00 мин. 20 сек.</t>
   </si>
   <si>
     <t>Rain</t>
@@ -2255,7 +2255,7 @@
     <t>Sonick071</t>
   </si>
   <si>
-    <t>8 ч. 57 мин. 5 сек.</t>
+    <t>8 ч. 57 мин. 05 сек.</t>
   </si>
   <si>
     <t>262</t>
@@ -2273,7 +2273,7 @@
     <t>Kingwords</t>
   </si>
   <si>
-    <t>15 ч. 33 мин. 6 сек.</t>
+    <t>15 ч. 33 мин. 06 сек.</t>
   </si>
   <si>
     <t>igormsu</t>
@@ -2294,13 +2294,13 @@
     <t>nyashermyasher</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 14 сек.</t>
+    <t>8 ч. 08 мин. 14 сек.</t>
   </si>
   <si>
     <t>Selica</t>
   </si>
   <si>
-    <t>10 ч. 7 мин. 44 сек.</t>
+    <t>10 ч. 07 мин. 44 сек.</t>
   </si>
   <si>
     <t>FlyingHamster</t>
@@ -2312,7 +2312,7 @@
     <t>violaint</t>
   </si>
   <si>
-    <t>8 ч. 4 мин. 40 сек.</t>
+    <t>8 ч. 04 мин. 40 сек.</t>
   </si>
   <si>
     <t>Robert000</t>
@@ -2327,7 +2327,7 @@
     <t>merely</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 51 сек.</t>
+    <t>8 ч. 08 мин. 51 сек.</t>
   </si>
   <si>
     <t>272</t>
@@ -2336,7 +2336,7 @@
     <t>Grizzly284</t>
   </si>
   <si>
-    <t>11 ч. 55 мин. 0 сек.</t>
+    <t>11 ч. 55 мин. 00 сек.</t>
   </si>
   <si>
     <t>273</t>
@@ -2396,7 +2396,7 @@
     <t>akinojes</t>
   </si>
   <si>
-    <t>8 ч. 55 мин. 0 сек.</t>
+    <t>8 ч. 55 мин. 00 сек.</t>
   </si>
   <si>
     <t>281–285</t>
@@ -2423,7 +2423,7 @@
     <t>batkovich</t>
   </si>
   <si>
-    <t>7 ч. 18 мин. 9 сек.</t>
+    <t>7 ч. 18 мин. 09 сек.</t>
   </si>
   <si>
     <t>olimo</t>
@@ -2438,7 +2438,7 @@
     <t>LevShumilov</t>
   </si>
   <si>
-    <t>7 ч. 16 мин. 6 сек.</t>
+    <t>7 ч. 16 мин. 06 сек.</t>
   </si>
   <si>
     <t>287–288</t>
@@ -2447,7 +2447,7 @@
     <t>moonwwwind</t>
   </si>
   <si>
-    <t>10 ч. 5 мин. 17 сек.</t>
+    <t>10 ч. 05 мин. 17 сек.</t>
   </si>
   <si>
     <t>Doode</t>
@@ -2477,13 +2477,13 @@
     <t>barto123</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 43 сек.</t>
+    <t>13 ч. 09 мин. 43 сек.</t>
   </si>
   <si>
     <t>Guepard</t>
   </si>
   <si>
-    <t>6 ч. 3 мин. 14 сек.</t>
+    <t>6 ч. 03 мин. 14 сек.</t>
   </si>
   <si>
     <t>293</t>
@@ -2507,7 +2507,7 @@
     <t>Reijaff</t>
   </si>
   <si>
-    <t>14 ч. 15 мин. 2 сек.</t>
+    <t>14 ч. 15 мин. 02 сек.</t>
   </si>
   <si>
     <t>ZILYA</t>
@@ -2528,7 +2528,7 @@
     <t>ZeeVi</t>
   </si>
   <si>
-    <t>8 ч. 1 мин. 0 сек.</t>
+    <t>8 ч. 01 мин. 00 сек.</t>
   </si>
   <si>
     <t>Dimanus</t>
@@ -2576,13 +2576,13 @@
     <t>maks-</t>
   </si>
   <si>
-    <t>6 ч. 4 мин. 16 сек.</t>
+    <t>6 ч. 04 мин. 16 сек.</t>
   </si>
   <si>
     <t>lep</t>
   </si>
   <si>
-    <t>10 ч. 30 мин. 0 сек.</t>
+    <t>10 ч. 30 мин. 00 сек.</t>
   </si>
   <si>
     <t>306</t>
@@ -2600,7 +2600,7 @@
     <t>Althea_Fullmoon</t>
   </si>
   <si>
-    <t>10 ч. 2 мин. 19 сек.</t>
+    <t>10 ч. 02 мин. 19 сек.</t>
   </si>
   <si>
     <t>SpazZm</t>
@@ -2663,7 +2663,7 @@
     <t>Azurit</t>
   </si>
   <si>
-    <t>7 ч. 45 мин. 4 сек.</t>
+    <t>7 ч. 45 мин. 04 сек.</t>
   </si>
   <si>
     <t>_Nicole_</t>
@@ -2690,7 +2690,7 @@
     <t>KOSTYA410</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 44 сек.</t>
+    <t>8 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>321–322</t>
@@ -2699,7 +2699,7 @@
     <t>potykk</t>
   </si>
   <si>
-    <t>11 ч. 6 мин. 41 сек.</t>
+    <t>11 ч. 06 мин. 41 сек.</t>
   </si>
   <si>
     <t>Торописька</t>
@@ -2714,13 +2714,13 @@
     <t>hotshot</t>
   </si>
   <si>
-    <t>7 ч. 57 мин. 2 сек.</t>
+    <t>7 ч. 57 мин. 02 сек.</t>
   </si>
   <si>
     <t>KaliaN-93RUS</t>
   </si>
   <si>
-    <t>8 ч. 4 мин. 21 сек.</t>
+    <t>8 ч. 04 мин. 21 сек.</t>
   </si>
   <si>
     <t>325</t>
@@ -2738,7 +2738,7 @@
     <t>81243534355</t>
   </si>
   <si>
-    <t>5 ч. 20 мин. 2 сек.</t>
+    <t>5 ч. 20 мин. 02 сек.</t>
   </si>
   <si>
     <t>Sebastien</t>
@@ -2768,13 +2768,13 @@
     <t>Andruhas</t>
   </si>
   <si>
-    <t>17 ч. 4 мин. 15 сек.</t>
+    <t>17 ч. 04 мин. 15 сек.</t>
   </si>
   <si>
     <t>Enrage</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 14 сек.</t>
+    <t>6 ч. 06 мин. 14 сек.</t>
   </si>
   <si>
     <t>332</t>
@@ -2783,7 +2783,7 @@
     <t>Lakira</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 9 сек.</t>
+    <t>9 ч. 03 мин. 09 сек.</t>
   </si>
   <si>
     <t>333–335</t>
@@ -2804,7 +2804,7 @@
     <t>Bucky</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 31 сек.</t>
+    <t>7 ч. 00 мин. 31 сек.</t>
   </si>
   <si>
     <t>336</t>
@@ -2834,7 +2834,7 @@
     <t>plop</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 56 сек.</t>
+    <t>7 ч. 00 мин. 56 сек.</t>
   </si>
   <si>
     <t>340–342</t>
@@ -2849,13 +2849,13 @@
     <t>kulinich</t>
   </si>
   <si>
-    <t>8 ч. 17 мин. 8 сек.</t>
+    <t>8 ч. 17 мин. 08 сек.</t>
   </si>
   <si>
     <t>Vk625</t>
   </si>
   <si>
-    <t>6 ч. 8 мин. 35 сек.</t>
+    <t>6 ч. 08 мин. 35 сек.</t>
   </si>
   <si>
     <t>343</t>
@@ -2891,19 +2891,19 @@
     <t>MrSir</t>
   </si>
   <si>
-    <t>6 ч. 56 мин. 1 сек.</t>
+    <t>6 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>AlexSIBER</t>
   </si>
   <si>
-    <t>6 ч. 1 мин. 4 сек.</t>
+    <t>6 ч. 01 мин. 04 сек.</t>
   </si>
   <si>
     <t>Аромат</t>
   </si>
   <si>
-    <t>6 ч. 59 мин. 2 сек.</t>
+    <t>6 ч. 59 мин. 02 сек.</t>
   </si>
   <si>
     <t>349–350</t>
@@ -2918,7 +2918,7 @@
     <t>AHTOH</t>
   </si>
   <si>
-    <t>6 ч. 3 мин. 34 сек.</t>
+    <t>6 ч. 03 мин. 34 сек.</t>
   </si>
   <si>
     <t>351–353</t>
@@ -2939,7 +2939,7 @@
     <t>pomponchic</t>
   </si>
   <si>
-    <t>8 ч. 21 мин. 5 сек.</t>
+    <t>8 ч. 21 мин. 05 сек.</t>
   </si>
   <si>
     <t>354</t>
@@ -2957,7 +2957,7 @@
     <t>я_араб</t>
   </si>
   <si>
-    <t>7 ч. 47 мин. 8 сек.</t>
+    <t>7 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>coolfox</t>
@@ -2975,7 +2975,7 @@
     <t>sav1</t>
   </si>
   <si>
-    <t>5 ч. 33 мин. 3 сек.</t>
+    <t>5 ч. 33 мин. 03 сек.</t>
   </si>
   <si>
     <t>359–361</t>
@@ -2984,19 +2984,19 @@
     <t>gomozek</t>
   </si>
   <si>
-    <t>9 ч. 45 мин. 1 сек.</t>
+    <t>9 ч. 45 мин. 01 сек.</t>
   </si>
   <si>
     <t>Pelagiad</t>
   </si>
   <si>
-    <t>3 ч. 57 мин. 1 сек.</t>
+    <t>3 ч. 57 мин. 01 сек.</t>
   </si>
   <si>
     <t>klnmln</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 43 сек.</t>
+    <t>9 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>362–364</t>
@@ -3017,7 +3017,7 @@
     <t>expollux</t>
   </si>
   <si>
-    <t>6 ч. 50 мин. 4 сек.</t>
+    <t>6 ч. 50 мин. 04 сек.</t>
   </si>
   <si>
     <t>365–366</t>
@@ -3026,13 +3026,13 @@
     <t>Leshiy239</t>
   </si>
   <si>
-    <t>8 ч. 35 мин. 9 сек.</t>
+    <t>8 ч. 35 мин. 09 сек.</t>
   </si>
   <si>
     <t>gosknyaz</t>
   </si>
   <si>
-    <t>8 ч. 4 мин. 30 сек.</t>
+    <t>8 ч. 04 мин. 30 сек.</t>
   </si>
   <si>
     <t>367</t>
@@ -3050,7 +3050,7 @@
     <t>Толик_Цой</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 25 сек.</t>
+    <t>4 ч. 03 мин. 25 сек.</t>
   </si>
   <si>
     <t>170000</t>
@@ -3086,13 +3086,13 @@
     <t>smith-</t>
   </si>
   <si>
-    <t>8 ч. 39 мин. 1 сек.</t>
+    <t>8 ч. 39 мин. 01 сек.</t>
   </si>
   <si>
     <t>Ямастер</t>
   </si>
   <si>
-    <t>7 ч. 29 мин. 7 сек.</t>
+    <t>7 ч. 29 мин. 07 сек.</t>
   </si>
   <si>
     <t>gramh</t>
@@ -3107,7 +3107,7 @@
     <t>rar17</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 47 сек.</t>
+    <t>8 ч. 08 мин. 47 сек.</t>
   </si>
   <si>
     <t>377–378</t>
@@ -3137,7 +3137,7 @@
     <t>azukun</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 24 сек.</t>
+    <t>5 ч. 00 мин. 24 сек.</t>
   </si>
   <si>
     <t>381–383</t>
@@ -3152,7 +3152,7 @@
     <t>Lost-Control</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 7 сек.</t>
+    <t>7 ч. 00 мин. 07 сек.</t>
   </si>
   <si>
     <t>LadyIrina</t>
@@ -3167,7 +3167,7 @@
     <t>kvdum</t>
   </si>
   <si>
-    <t>7 ч. 8 мин. 54 сек.</t>
+    <t>7 ч. 08 мин. 54 сек.</t>
   </si>
   <si>
     <t>лаоцзы</t>
@@ -3182,19 +3182,19 @@
     <t>iBumble</t>
   </si>
   <si>
-    <t>8 ч. 1 мин. 18 сек.</t>
+    <t>8 ч. 01 мин. 18 сек.</t>
   </si>
   <si>
     <t>mavdix</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 55 сек.</t>
+    <t>6 ч. 07 мин. 55 сек.</t>
   </si>
   <si>
     <t>motivation</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 14 сек.</t>
+    <t>7 ч. 01 мин. 14 сек.</t>
   </si>
   <si>
     <t>opisthoproctus</t>
@@ -3221,7 +3221,7 @@
     <t>Пичалька</t>
   </si>
   <si>
-    <t>4 ч. 18 мин. 2 сек.</t>
+    <t>4 ч. 18 мин. 02 сек.</t>
   </si>
   <si>
     <t>happypoo</t>
@@ -3260,7 +3260,7 @@
     <t>неторопыжка</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 48 сек.</t>
+    <t>8 ч. 05 мин. 48 сек.</t>
   </si>
   <si>
     <t>399–401</t>
@@ -3299,7 +3299,7 @@
     <t>beb0p</t>
   </si>
   <si>
-    <t>4 ч. 29 мин. 8 сек.</t>
+    <t>4 ч. 29 мин. 08 сек.</t>
   </si>
   <si>
     <t>404–406</t>
@@ -3314,13 +3314,13 @@
     <t>fallen_dante</t>
   </si>
   <si>
-    <t>5 ч. 10 мин. 5 сек.</t>
+    <t>5 ч. 10 мин. 05 сек.</t>
   </si>
   <si>
     <t>Bolot</t>
   </si>
   <si>
-    <t>4 ч. 45 мин. 0 сек.</t>
+    <t>4 ч. 45 мин. 00 сек.</t>
   </si>
   <si>
     <t>407–408</t>
@@ -3365,7 +3365,7 @@
     <t>Verhovyh</t>
   </si>
   <si>
-    <t>6 ч. 5 мин. 25 сек.</t>
+    <t>6 ч. 05 мин. 25 сек.</t>
   </si>
   <si>
     <t>stasershov-96</t>
@@ -3380,7 +3380,7 @@
     <t>Oyvse</t>
   </si>
   <si>
-    <t>4 ч. 22 мин. 9 сек.</t>
+    <t>4 ч. 22 мин. 09 сек.</t>
   </si>
   <si>
     <t>Игорка</t>
@@ -3404,7 +3404,7 @@
     <t>SVolin99</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 8 сек.</t>
+    <t>7 ч. 01 мин. 08 сек.</t>
   </si>
   <si>
     <t>cubapro</t>
@@ -3416,7 +3416,7 @@
     <t>Ivchik</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 56 сек.</t>
+    <t>3 ч. 09 мин. 56 сек.</t>
   </si>
   <si>
     <t>420–421</t>
@@ -3431,7 +3431,7 @@
     <t>ReXofuS</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 1 сек.</t>
+    <t>6 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>422–423</t>
@@ -3536,7 +3536,7 @@
     <t>Евсеев</t>
   </si>
   <si>
-    <t>4 ч. 23 мин. 6 сек.</t>
+    <t>4 ч. 23 мин. 06 сек.</t>
   </si>
   <si>
     <t>moraq</t>
@@ -3584,7 +3584,7 @@
     <t>MachoMaNNN</t>
   </si>
   <si>
-    <t>10 ч. 57 мин. 1 сек.</t>
+    <t>10 ч. 57 мин. 01 сек.</t>
   </si>
   <si>
     <t>smith98</t>
@@ -3599,19 +3599,19 @@
     <t>Mc2000</t>
   </si>
   <si>
-    <t>6 ч. 36 мин. 1 сек.</t>
+    <t>6 ч. 36 мин. 01 сек.</t>
   </si>
   <si>
     <t>vulpinex</t>
   </si>
   <si>
-    <t>4 ч. 35 мин. 0 сек.</t>
+    <t>4 ч. 35 мин. 00 сек.</t>
   </si>
   <si>
     <t>inteltone</t>
   </si>
   <si>
-    <t>6 ч. 54 мин. 5 сек.</t>
+    <t>6 ч. 54 мин. 05 сек.</t>
   </si>
   <si>
     <t>denisov7</t>
@@ -3629,7 +3629,7 @@
     <t>acter</t>
   </si>
   <si>
-    <t>8 ч. 2 мин. 27 сек.</t>
+    <t>8 ч. 02 мин. 27 сек.</t>
   </si>
   <si>
     <t>450–452</t>
@@ -3650,7 +3650,7 @@
     <t>needsuicide</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 12 сек.</t>
+    <t>5 ч. 04 мин. 12 сек.</t>
   </si>
   <si>
     <t>453</t>
@@ -3707,7 +3707,7 @@
     <t>sndbox</t>
   </si>
   <si>
-    <t>8 ч. 26 мин. 4 сек.</t>
+    <t>8 ч. 26 мин. 04 сек.</t>
   </si>
   <si>
     <t>nardist01</t>
@@ -3722,19 +3722,19 @@
     <t>paul566576</t>
   </si>
   <si>
-    <t>10 ч. 24 мин. 6 сек.</t>
+    <t>10 ч. 24 мин. 06 сек.</t>
   </si>
   <si>
     <t>viten</t>
   </si>
   <si>
-    <t>6 ч. 4 мин. 24 сек.</t>
+    <t>6 ч. 04 мин. 24 сек.</t>
   </si>
   <si>
     <t>oyasumi</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 24 сек.</t>
+    <t>5 ч. 06 мин. 24 сек.</t>
   </si>
   <si>
     <t>jabberw</t>
@@ -3755,13 +3755,13 @@
     <t>heavy_ezh</t>
   </si>
   <si>
-    <t>6 ч. 55 мин. 4 сек.</t>
+    <t>6 ч. 55 мин. 04 сек.</t>
   </si>
   <si>
     <t>centryfuga</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 8 сек.</t>
+    <t>5 ч. 07 мин. 08 сек.</t>
   </si>
   <si>
     <t>Remixez</t>
@@ -3788,13 +3788,13 @@
     <t>keshanavzlet</t>
   </si>
   <si>
-    <t>9 ч. 0 мин. 9 сек.</t>
+    <t>9 ч. 00 мин. 09 сек.</t>
   </si>
   <si>
     <t>rapiru</t>
   </si>
   <si>
-    <t>8 ч. 0 мин. 38 сек.</t>
+    <t>8 ч. 00 мин. 38 сек.</t>
   </si>
   <si>
     <t>AVStarikovich</t>
@@ -3827,7 +3827,7 @@
     <t>Noob228</t>
   </si>
   <si>
-    <t>2 ч. 22 мин. 7 сек.</t>
+    <t>2 ч. 22 мин. 07 сек.</t>
   </si>
   <si>
     <t>maryka77</t>
@@ -3866,13 +3866,13 @@
     <t>forsaZ</t>
   </si>
   <si>
-    <t>3 ч. 54 мин. 8 сек.</t>
+    <t>3 ч. 54 мин. 08 сек.</t>
   </si>
   <si>
     <t>_dp_</t>
   </si>
   <si>
-    <t>4 ч. 25 мин. 5 сек.</t>
+    <t>4 ч. 25 мин. 05 сек.</t>
   </si>
   <si>
     <t>zvv</t>
@@ -3887,7 +3887,7 @@
     <t>kastiell90</t>
   </si>
   <si>
-    <t>6 ч. 14 мин. 3 сек.</t>
+    <t>6 ч. 14 мин. 03 сек.</t>
   </si>
   <si>
     <t>Agen</t>
@@ -3905,7 +3905,7 @@
     <t>suenot</t>
   </si>
   <si>
-    <t>4 ч. 43 мин. 4 сек.</t>
+    <t>4 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>takobus</t>
@@ -3947,13 +3947,13 @@
     <t>MaestroPain</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 24 сек.</t>
+    <t>3 ч. 09 мин. 24 сек.</t>
   </si>
   <si>
     <t>art_gl</t>
   </si>
   <si>
-    <t>3 ч. 47 мин. 8 сек.</t>
+    <t>3 ч. 47 мин. 08 сек.</t>
   </si>
 </sst>
 </file>
